--- a/Modelos em Python/7 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/7 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MAPE</t>
+          <t>sMAPE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>RRMSE</t>
         </is>
       </c>
     </row>
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09281682781683484</v>
+        <v>4.45839543543012</v>
       </c>
       <c r="C2" t="n">
         <v>0.2960551425215195</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3988739431436511</v>
+        <v>0.114093183914188</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1177156293169208</v>
+        <v>5.736830488433379</v>
       </c>
       <c r="C3" t="n">
         <v>0.3769726491120625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5243008876186557</v>
+        <v>0.1499700810887613</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1037070035130433</v>
+        <v>4.946660093019153</v>
       </c>
       <c r="C4" t="n">
         <v>0.3294329563243322</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4438944482819283</v>
+        <v>0.1269707680756613</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1029710640942793</v>
+        <v>4.946597409004617</v>
       </c>
       <c r="C5" t="n">
         <v>0.3295691273005551</v>
       </c>
       <c r="D5" t="n">
-        <v>0.438529263228174</v>
+        <v>0.1254361202111074</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.107698767681173</v>
+        <v>5.129370162981612</v>
       </c>
       <c r="C6" t="n">
         <v>0.342180506174485</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4631747119573237</v>
+        <v>0.1324856599537671</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1113001957050572</v>
+        <v>5.379378426640836</v>
       </c>
       <c r="C7" t="n">
         <v>0.3597789307105486</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4874213878138116</v>
+        <v>0.1394211354225312</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1182626921875632</v>
+        <v>5.759589558215509</v>
       </c>
       <c r="C8" t="n">
         <v>0.3788432999572352</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5246948745708538</v>
+        <v>0.1500827764065919</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1184446377030088</v>
+        <v>5.762887412317249</v>
       </c>
       <c r="C9" t="n">
         <v>0.3794034770890392</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5249213859282428</v>
+        <v>0.1501475673070793</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.197092329454651</v>
+        <v>37.19244952228086</v>
       </c>
       <c r="C10" t="n">
         <v>5.229556394616322</v>
       </c>
       <c r="D10" t="n">
-        <v>5.22984615079018</v>
+        <v>1.187354626459781</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2241117976412976</v>
+        <v>9.482723878903519</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7047169694436607</v>
+        <v>0.7017653680558412</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8205614948182316</v>
+        <v>0.2338601461824587</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.259512565783021</v>
+        <v>10.88342843115366</v>
       </c>
       <c r="C12" t="n">
         <v>0.8234393097505751</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9340313972392194</v>
+        <v>0.267168657714152</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2148119522867581</v>
+        <v>8.206618027061662</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6728599422970936</v>
+        <v>0.5990787654435735</v>
       </c>
       <c r="D13" t="n">
-        <v>0.793249221859046</v>
+        <v>0.1872760337803207</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/7 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/7 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.45839543543012</v>
+        <v>4.458395435432936</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2960551425215195</v>
+        <v>0.2960551425217799</v>
       </c>
       <c r="D2" t="n">
-        <v>0.114093183914188</v>
+        <v>0.114093183914307</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.736830488433379</v>
+        <v>5.736830488432433</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3769726491120625</v>
+        <v>0.3769726491120525</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1499700810887613</v>
+        <v>0.1499700810887689</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.946660093019153</v>
+        <v>4.946660092953823</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3294329563243322</v>
+        <v>0.3294329563193344</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1269707680756613</v>
+        <v>0.1269707680736741</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.946597409004617</v>
+        <v>4.844145367675937</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3295691273005551</v>
+        <v>0.3225484432146881</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1254361202111074</v>
+        <v>0.1230553986292959</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.129370162981612</v>
+        <v>5.125843541215533</v>
       </c>
       <c r="C6" t="n">
-        <v>0.342180506174485</v>
+        <v>0.3418864876935661</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1324856599537671</v>
+        <v>0.1323989443678832</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.379378426640836</v>
+        <v>5.404658832445429</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3597789307105486</v>
+        <v>0.36147444844235</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1394211354225312</v>
+        <v>0.1401390396161988</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.759589558215509</v>
+        <v>5.758585872263859</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3788432999572352</v>
+        <v>0.3787816943095043</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1500827764065919</v>
+        <v>0.1500566309775828</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.762887412317249</v>
+        <v>5.761535227563424</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3794034770890392</v>
+        <v>0.3793186050265972</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1501475673070793</v>
+        <v>0.1500940540630794</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37.19244952228086</v>
+        <v>4.97966703448636</v>
       </c>
       <c r="C10" t="n">
-        <v>5.229556394616322</v>
+        <v>0.4269645194056881</v>
       </c>
       <c r="D10" t="n">
-        <v>1.187354626459781</v>
+        <v>0.1146191915947487</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.482723878903519</v>
+        <v>9.541030473937809</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7017653680558412</v>
+        <v>0.7067154304100481</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2338601461824587</v>
+        <v>0.2349671328048878</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.88342843115366</v>
+        <v>9.752649096181802</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8234393097505751</v>
+        <v>0.7248465227905023</v>
       </c>
       <c r="D12" t="n">
-        <v>0.267168657714152</v>
+        <v>0.2396478867846245</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.206618027061662</v>
+        <v>9.169792068952273</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5990787654435735</v>
+        <v>0.6812602140529413</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1872760337803207</v>
+        <v>0.2060361840739774</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/7 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/7 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.541030473937809</v>
+        <v>9.558691389462499</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7067154304100481</v>
+        <v>0.7082334114933384</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2349671328048878</v>
+        <v>0.235461928260638</v>
       </c>
     </row>
     <row r="12">
